--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\enum-collections-performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B6161F-FDE2-4D09-B126-2E09DA8D5527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A498E24F-34A8-4098-A1DD-F7D5AFA7E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="EnumMap Chart" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EnumMap Data'!$H$14:$L$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EnumMap Data'!$H$12:$N$29</definedName>
     <definedName name="distinctMapTypes">'EnumMap Data'!$I$1</definedName>
     <definedName name="enumSizeCategories">'EnumMap Data'!$I$2</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="15">
   <si>
     <t>Type</t>
   </si>
@@ -69,37 +69,20 @@
     <t>Distinct Map Types</t>
   </si>
   <si>
-    <t>Avg Time /ms</t>
-  </si>
-  <si>
     <t>AVERAGES:</t>
-  </si>
-  <si>
-    <t>Iterations:</t>
   </si>
   <si>
     <t>Read Cycles:</t>
   </si>
   <si>
-    <t>Enum Size:</t>
+    <t>Enum Size vs Avg Time /ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,27 +131,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -209,15 +191,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'EnumMap Data'!$L$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg Time /ms</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>3 values</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -288,16 +262,55 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'EnumMap Data'!$H$15:$H$74</c:f>
+              <c:f>'EnumMap Data'!$H$14:$H$29</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>EnumMap</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>HashMap</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>LinkedHashMap</c:v>
                 </c:pt>
               </c:strCache>
@@ -305,17 +318,632 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EnumMap Data'!$L$15:$L$74</c:f>
+              <c:f>'EnumMap Data'!$K$14:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>722.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>876.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>491.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>331.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E05-413A-9A9E-4778273EECA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 values</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EnumMap Data'!$H$14:$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EnumMap Data'!$L$14:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>635.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>634.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>737.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1118.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>908.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>409.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>487.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>356.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>222.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>302.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDBD-4F59-BCC0-673D97D28C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10 values</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EnumMap Data'!$H$14:$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EnumMap Data'!$M$14:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>770.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1133.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1445.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2093.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2498.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>439.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>658.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>816.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>459.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>568.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>317.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDBD-4F59-BCC0-673D97D28C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>20 values</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EnumMap Data'!$H$14:$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EnumMap</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EnumMap Data'!$N$14:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1660.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2433.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3013.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3027.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5517.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>903.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1372.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1787.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>631.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>971.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1252.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>346.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>739.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>743.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -323,7 +951,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E05-413A-9A9E-4778273EECA3}"/>
+              <c16:uniqueId val="{00000002-CDBD-4F59-BCC0-673D97D28C83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -414,6 +1042,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1024,8 +1683,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1320,11 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W601"/>
+  <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="B1" colorId="9" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="B10" colorId="9" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,16 +1996,15 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1369,19 +2026,8 @@
       <c r="I1" s="1">
         <v>3</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1403,19 +2049,8 @@
       <c r="I2" s="1">
         <v>4</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1438,19 +2073,8 @@
         <f>COUNTIF(A:A,"EnumMap")/enumSizeCategories</f>
         <v>50</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1466,19 +2090,8 @@
       <c r="E4" s="1">
         <v>623</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1500,19 +2113,8 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1535,19 +2137,8 @@
         <f>COUNTIF(C:C,H6)/(distinctMapTypes*enumSizeCategories)</f>
         <v>10</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1570,19 +2161,8 @@
         <f>COUNTIF(C:C,H7)/(distinctMapTypes*enumSizeCategories)</f>
         <v>10</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1605,19 +2185,8 @@
         <f>COUNTIF(C:C,H8)/(distinctMapTypes*enumSizeCategories)</f>
         <v>10</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1640,19 +2209,8 @@
         <f>COUNTIF(C:C,H9)/(distinctMapTypes*enumSizeCategories)</f>
         <v>10</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1675,19 +2233,8 @@
         <f>COUNTIF(C:C,H10)/(distinctMapTypes*enumSizeCategories)</f>
         <v>10</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1703,19 +2250,8 @@
       <c r="E11" s="1">
         <v>713</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1732,21 +2268,10 @@
         <v>1414</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1762,19 +2287,14 @@
       <c r="E13" s="1">
         <v>2879</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1799,25 +2319,20 @@
       <c r="J14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>5</v>
+      </c>
+      <c r="M14" s="6">
+        <v>10</v>
+      </c>
+      <c r="N14" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1842,26 +2357,24 @@
       <c r="J15" s="1">
         <v>10</v>
       </c>
-      <c r="K15" s="1">
-        <v>3</v>
-      </c>
-      <c r="L15" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H15,B:B,I15,C:C,J15,D:D,K15)</f>
+      <c r="K15">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H15,$B:$B,$I15,$C:$C,$J15,$D:$D,K$14)</f>
         <v>258.3</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H15,$B:$B,$I15,$C:$C,$J15,$D:$D,L$14)</f>
+        <v>411.7</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H15,$B:$B,$I15,$C:$C,$J15,$D:$D,M$14)</f>
+        <v>770.2</v>
+      </c>
+      <c r="N15">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H15,$B:$B,$I15,$C:$C,$J15,$D:$D,N$14)</f>
+        <v>1660.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +2391,7 @@
         <v>705</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="1">
         <v>1000000</v>
@@ -1886,15 +2399,24 @@
       <c r="J16" s="1">
         <v>10</v>
       </c>
-      <c r="K16" s="1">
-        <v>5</v>
-      </c>
-      <c r="L16" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H16,B:B,I16,C:C,J16,D:D,K16)</f>
-        <v>411.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H16,$B:$B,$I16,$C:$C,$J16,$D:$D,K$14)</f>
+        <v>405.1</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H16,$B:$B,$I16,$C:$C,$J16,$D:$D,L$14)</f>
+        <v>635.20000000000005</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H16,$B:$B,$I16,$C:$C,$J16,$D:$D,M$14)</f>
+        <v>1133.3</v>
+      </c>
+      <c r="N16">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H16,$B:$B,$I16,$C:$C,$J16,$D:$D,N$14)</f>
+        <v>2433.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +2433,7 @@
         <v>679</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>1000000</v>
@@ -1919,15 +2441,24 @@
       <c r="J17" s="1">
         <v>10</v>
       </c>
-      <c r="K17" s="1">
-        <v>10</v>
-      </c>
-      <c r="L17" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H17,B:B,I17,C:C,J17,D:D,K17)</f>
-        <v>770.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H17,$B:$B,$I17,$C:$C,$J17,$D:$D,K$14)</f>
+        <v>631</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H17,$B:$B,$I17,$C:$C,$J17,$D:$D,L$14)</f>
+        <v>634.4</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H17,$B:$B,$I17,$C:$C,$J17,$D:$D,M$14)</f>
+        <v>1380</v>
+      </c>
+      <c r="N17">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H17,$B:$B,$I17,$C:$C,$J17,$D:$D,N$14)</f>
+        <v>3013.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1949,18 +2480,27 @@
       <c r="I18" s="1">
         <v>1000000</v>
       </c>
-      <c r="J18" s="1">
-        <v>10</v>
-      </c>
-      <c r="K18" s="1">
-        <v>20</v>
-      </c>
-      <c r="L18" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H18,B:B,I18,C:C,J18,D:D,K18)</f>
-        <v>1660.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="5">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H18,$B:$B,$I18,$C:$C,$J18,$D:$D,K$14)</f>
+        <v>424.2</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H18,$B:$B,$I18,$C:$C,$J18,$D:$D,L$14)</f>
+        <v>737.6</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H18,$B:$B,$I18,$C:$C,$J18,$D:$D,M$14)</f>
+        <v>1445.4</v>
+      </c>
+      <c r="N18">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H18,$B:$B,$I18,$C:$C,$J18,$D:$D,N$14)</f>
+        <v>3027.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1982,23 +2522,27 @@
       <c r="I19" s="1">
         <v>1000000</v>
       </c>
-      <c r="J19" s="1">
-        <v>10</v>
-      </c>
-      <c r="K19" s="1">
-        <v>3</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" ref="L19:L26" si="0">AVERAGEIFS(E:E,A:A,H19,B:B,I19,C:C,J19,D:D,K19)</f>
-        <v>405.1</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="5">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H19,$B:$B,$I19,$C:$C,$J19,$D:$D,K$14)</f>
+        <v>722.5</v>
+      </c>
+      <c r="L19">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H19,$B:$B,$I19,$C:$C,$J19,$D:$D,L$14)</f>
+        <v>1118.4000000000001</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H19,$B:$B,$I19,$C:$C,$J19,$D:$D,M$14)</f>
+        <v>2093.1999999999998</v>
+      </c>
+      <c r="N19">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H19,$B:$B,$I19,$C:$C,$J19,$D:$D,N$14)</f>
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2015,23 +2559,32 @@
         <v>481</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1">
         <v>1000000</v>
       </c>
-      <c r="J20" s="1">
-        <v>10</v>
-      </c>
-      <c r="K20" s="1">
-        <v>5</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>635.20000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="5">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H20,$B:$B,$I20,$C:$C,$J20,$D:$D,K$14)</f>
+        <v>876.8</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H20,$B:$B,$I20,$C:$C,$J20,$D:$D,L$14)</f>
+        <v>908.2</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H20,$B:$B,$I20,$C:$C,$J20,$D:$D,M$14)</f>
+        <v>2498.3000000000002</v>
+      </c>
+      <c r="N20">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H20,$B:$B,$I20,$C:$C,$J20,$D:$D,N$14)</f>
+        <v>5517.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -2048,23 +2601,32 @@
         <v>449</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1">
         <v>1000000</v>
       </c>
-      <c r="J21" s="1">
-        <v>10</v>
-      </c>
-      <c r="K21" s="1">
-        <v>10</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>1133.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="5">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H21,$B:$B,$I21,$C:$C,$J21,$D:$D,K$14)</f>
+        <v>198</v>
+      </c>
+      <c r="L21">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H21,$B:$B,$I21,$C:$C,$J21,$D:$D,L$14)</f>
+        <v>248.7</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H21,$B:$B,$I21,$C:$C,$J21,$D:$D,M$14)</f>
+        <v>439.8</v>
+      </c>
+      <c r="N21">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H21,$B:$B,$I21,$C:$C,$J21,$D:$D,N$14)</f>
+        <v>903.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -2086,18 +2648,27 @@
       <c r="I22" s="1">
         <v>1000000</v>
       </c>
-      <c r="J22" s="1">
-        <v>10</v>
-      </c>
-      <c r="K22" s="1">
-        <v>20</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>2433.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="5">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H22,$B:$B,$I22,$C:$C,$J22,$D:$D,K$14)</f>
+        <v>241.4</v>
+      </c>
+      <c r="L22">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H22,$B:$B,$I22,$C:$C,$J22,$D:$D,L$14)</f>
+        <v>409.3</v>
+      </c>
+      <c r="M22">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H22,$B:$B,$I22,$C:$C,$J22,$D:$D,M$14)</f>
+        <v>658.4</v>
+      </c>
+      <c r="N22">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H22,$B:$B,$I22,$C:$C,$J22,$D:$D,N$14)</f>
+        <v>1372.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -2119,29 +2690,27 @@
       <c r="I23" s="1">
         <v>1000000</v>
       </c>
-      <c r="J23" s="1">
-        <v>10</v>
-      </c>
-      <c r="K23" s="1">
-        <v>3</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>631</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H23,$B:$B,$I23,$C:$C,$J23,$D:$D,K$14)</f>
+        <v>491.5</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H23,$B:$B,$I23,$C:$C,$J23,$D:$D,L$14)</f>
+        <v>487.1</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H23,$B:$B,$I23,$C:$C,$J23,$D:$D,M$14)</f>
+        <v>816.8</v>
+      </c>
+      <c r="N23">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H23,$B:$B,$I23,$C:$C,$J23,$D:$D,N$14)</f>
+        <v>1787.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2158,23 +2727,32 @@
         <v>1447</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1">
         <v>1000000</v>
       </c>
-      <c r="J24" s="1">
-        <v>10</v>
-      </c>
-      <c r="K24" s="1">
-        <v>5</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>634.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="5">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H24,$B:$B,$I24,$C:$C,$J24,$D:$D,K$14)</f>
+        <v>162</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H24,$B:$B,$I24,$C:$C,$J24,$D:$D,L$14)</f>
+        <v>165.9</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H24,$B:$B,$I24,$C:$C,$J24,$D:$D,M$14)</f>
+        <v>322</v>
+      </c>
+      <c r="N24">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H24,$B:$B,$I24,$C:$C,$J24,$D:$D,N$14)</f>
+        <v>631.29999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -2191,23 +2769,32 @@
         <v>3245</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I25" s="1">
         <v>1000000</v>
       </c>
-      <c r="J25" s="1">
-        <v>10</v>
-      </c>
-      <c r="K25" s="1">
-        <v>10</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="5">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H25,$B:$B,$I25,$C:$C,$J25,$D:$D,K$14)</f>
+        <v>168</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H25,$B:$B,$I25,$C:$C,$J25,$D:$D,L$14)</f>
+        <v>356.2</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H25,$B:$B,$I25,$C:$C,$J25,$D:$D,M$14)</f>
+        <v>459.5</v>
+      </c>
+      <c r="N25">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H25,$B:$B,$I25,$C:$C,$J25,$D:$D,N$14)</f>
+        <v>971.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2229,18 +2816,27 @@
       <c r="I26" s="1">
         <v>1000000</v>
       </c>
-      <c r="J26" s="1">
-        <v>10</v>
-      </c>
-      <c r="K26" s="1">
-        <v>20</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="0"/>
-        <v>3013.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H26,$B:$B,$I26,$C:$C,$J26,$D:$D,K$14)</f>
+        <v>357</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H26,$B:$B,$I26,$C:$C,$J26,$D:$D,L$14)</f>
+        <v>390</v>
+      </c>
+      <c r="M26">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H26,$B:$B,$I26,$C:$C,$J26,$D:$D,M$14)</f>
+        <v>568.4</v>
+      </c>
+      <c r="N26">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H26,$B:$B,$I26,$C:$C,$J26,$D:$D,N$14)</f>
+        <v>1252.9000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2262,18 +2858,27 @@
       <c r="I27" s="1">
         <v>1000000</v>
       </c>
-      <c r="J27" s="1">
-        <v>20</v>
-      </c>
-      <c r="K27" s="1">
-        <v>3</v>
-      </c>
-      <c r="L27" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H27,B:B,I27,C:C,J27,D:D,K27)</f>
-        <v>424.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H27,$B:$B,$I27,$C:$C,$J27,$D:$D,K$14)</f>
+        <v>108.2</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H27,$B:$B,$I27,$C:$C,$J27,$D:$D,L$14)</f>
+        <v>118.2</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H27,$B:$B,$I27,$C:$C,$J27,$D:$D,M$14)</f>
+        <v>171.2</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H27,$B:$B,$I27,$C:$C,$J27,$D:$D,N$14)</f>
+        <v>346.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -2290,23 +2895,32 @@
         <v>618</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28" s="1">
         <v>1000000</v>
       </c>
-      <c r="J28" s="1">
-        <v>20</v>
-      </c>
-      <c r="K28" s="1">
-        <v>5</v>
-      </c>
-      <c r="L28" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H28,B:B,I28,C:C,J28,D:D,K28)</f>
-        <v>737.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H28,$B:$B,$I28,$C:$C,$J28,$D:$D,K$14)</f>
+        <v>96.9</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H28,$B:$B,$I28,$C:$C,$J28,$D:$D,L$14)</f>
+        <v>222.3</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H28,$B:$B,$I28,$C:$C,$J28,$D:$D,M$14)</f>
+        <v>321</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H28,$B:$B,$I28,$C:$C,$J28,$D:$D,N$14)</f>
+        <v>739.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -2323,23 +2937,32 @@
         <v>599</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="1">
         <v>1000000</v>
       </c>
-      <c r="J29" s="1">
-        <v>20</v>
-      </c>
-      <c r="K29" s="1">
-        <v>10</v>
-      </c>
-      <c r="L29" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H29,B:B,I29,C:C,J29,D:D,K29)</f>
-        <v>1445.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H29,$B:$B,$I29,$C:$C,$J29,$D:$D,K$14)</f>
+        <v>331.3</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H29,$B:$B,$I29,$C:$C,$J29,$D:$D,L$14)</f>
+        <v>302.5</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H29,$B:$B,$I29,$C:$C,$J29,$D:$D,M$14)</f>
+        <v>317.5</v>
+      </c>
+      <c r="N29">
+        <f>AVERAGEIFS($E:$E,$A:$A,$H29,$B:$B,$I29,$C:$C,$J29,$D:$D,N$14)</f>
+        <v>743.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -2355,24 +2978,8 @@
       <c r="E30" s="1">
         <v>2325</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J30" s="1">
-        <v>20</v>
-      </c>
-      <c r="K30" s="1">
-        <v>20</v>
-      </c>
-      <c r="L30" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H30,B:B,I30,C:C,J30,D:D,K30)</f>
-        <v>3027.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -2388,24 +2995,8 @@
       <c r="E31" s="1">
         <v>1113</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J31" s="1">
-        <v>20</v>
-      </c>
-      <c r="K31" s="1">
-        <v>3</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" ref="L31:L38" si="1">AVERAGEIFS(E:E,A:A,H31,B:B,I31,C:C,J31,D:D,K31)</f>
-        <v>722.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2421,24 +3012,8 @@
       <c r="E32" s="1">
         <v>388</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J32" s="1">
-        <v>20</v>
-      </c>
-      <c r="K32" s="1">
-        <v>5</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="1"/>
-        <v>1118.4000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2454,24 +3029,8 @@
       <c r="E33" s="1">
         <v>397</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J33" s="1">
-        <v>20</v>
-      </c>
-      <c r="K33" s="1">
-        <v>10</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="1"/>
-        <v>2093.1999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2487,24 +3046,8 @@
       <c r="E34" s="1">
         <v>1507</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J34" s="1">
-        <v>20</v>
-      </c>
-      <c r="K34" s="1">
-        <v>20</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="1"/>
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2520,24 +3063,8 @@
       <c r="E35" s="1">
         <v>717</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J35" s="1">
-        <v>20</v>
-      </c>
-      <c r="K35" s="1">
-        <v>3</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="1"/>
-        <v>876.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2553,24 +3080,8 @@
       <c r="E36" s="1">
         <v>1306</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J36" s="1">
-        <v>20</v>
-      </c>
-      <c r="K36" s="1">
-        <v>5</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="1"/>
-        <v>908.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -2586,24 +3097,8 @@
       <c r="E37" s="1">
         <v>2859</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J37" s="1">
-        <v>20</v>
-      </c>
-      <c r="K37" s="1">
-        <v>10</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="1"/>
-        <v>2498.3000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2619,24 +3114,8 @@
       <c r="E38" s="1">
         <v>285</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J38" s="1">
-        <v>20</v>
-      </c>
-      <c r="K38" s="1">
-        <v>20</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="1"/>
-        <v>5517.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -2652,24 +3131,8 @@
       <c r="E39" s="1">
         <v>589</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J39" s="1">
-        <v>5</v>
-      </c>
-      <c r="K39" s="1">
-        <v>3</v>
-      </c>
-      <c r="L39" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H39,B:B,I39,C:C,J39,D:D,K39)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -2685,24 +3148,8 @@
       <c r="E40" s="1">
         <v>636</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J40" s="1">
-        <v>5</v>
-      </c>
-      <c r="K40" s="1">
-        <v>5</v>
-      </c>
-      <c r="L40" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H40,B:B,I40,C:C,J40,D:D,K40)</f>
-        <v>248.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -2718,24 +3165,8 @@
       <c r="E41" s="1">
         <v>832</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J41" s="1">
-        <v>5</v>
-      </c>
-      <c r="K41" s="1">
-        <v>10</v>
-      </c>
-      <c r="L41" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H41,B:B,I41,C:C,J41,D:D,K41)</f>
-        <v>439.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -2751,24 +3182,8 @@
       <c r="E42" s="1">
         <v>2549</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J42" s="1">
-        <v>5</v>
-      </c>
-      <c r="K42" s="1">
-        <v>20</v>
-      </c>
-      <c r="L42" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H42,B:B,I42,C:C,J42,D:D,K42)</f>
-        <v>903.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2784,24 +3199,8 @@
       <c r="E43" s="1">
         <v>1129</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J43" s="1">
-        <v>5</v>
-      </c>
-      <c r="K43" s="1">
-        <v>3</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" ref="L43:L50" si="2">AVERAGEIFS(E:E,A:A,H43,B:B,I43,C:C,J43,D:D,K43)</f>
-        <v>241.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2817,24 +3216,8 @@
       <c r="E44" s="1">
         <v>410</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J44" s="1">
-        <v>5</v>
-      </c>
-      <c r="K44" s="1">
-        <v>5</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="2"/>
-        <v>409.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -2850,24 +3233,8 @@
       <c r="E45" s="1">
         <v>471</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J45" s="1">
-        <v>5</v>
-      </c>
-      <c r="K45" s="1">
-        <v>10</v>
-      </c>
-      <c r="L45" s="1">
-        <f t="shared" si="2"/>
-        <v>658.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -2883,24 +3250,8 @@
       <c r="E46" s="1">
         <v>1981</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J46" s="1">
-        <v>5</v>
-      </c>
-      <c r="K46" s="1">
-        <v>20</v>
-      </c>
-      <c r="L46" s="1">
-        <f t="shared" si="2"/>
-        <v>1372.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2916,24 +3267,8 @@
       <c r="E47" s="1">
         <v>840</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J47" s="1">
-        <v>5</v>
-      </c>
-      <c r="K47" s="1">
-        <v>3</v>
-      </c>
-      <c r="L47" s="1">
-        <f t="shared" si="2"/>
-        <v>491.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -2949,24 +3284,8 @@
       <c r="E48" s="1">
         <v>1443</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J48" s="1">
-        <v>5</v>
-      </c>
-      <c r="K48" s="1">
-        <v>5</v>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="2"/>
-        <v>487.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -2982,24 +3301,8 @@
       <c r="E49" s="1">
         <v>3204</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J49" s="1">
-        <v>5</v>
-      </c>
-      <c r="K49" s="1">
-        <v>10</v>
-      </c>
-      <c r="L49" s="1">
-        <f t="shared" si="2"/>
-        <v>816.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3015,24 +3318,8 @@
       <c r="E50" s="1">
         <v>259</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J50" s="1">
-        <v>5</v>
-      </c>
-      <c r="K50" s="1">
-        <v>20</v>
-      </c>
-      <c r="L50" s="1">
-        <f t="shared" si="2"/>
-        <v>1787.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -3048,24 +3335,8 @@
       <c r="E51" s="1">
         <v>656</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I51" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J51" s="1">
-        <v>3</v>
-      </c>
-      <c r="K51" s="1">
-        <v>3</v>
-      </c>
-      <c r="L51" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H51,B:B,I51,C:C,J51,D:D,K51)</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -3081,24 +3352,8 @@
       <c r="E52" s="1">
         <v>628</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J52" s="1">
-        <v>3</v>
-      </c>
-      <c r="K52" s="1">
-        <v>5</v>
-      </c>
-      <c r="L52" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H52,B:B,I52,C:C,J52,D:D,K52)</f>
-        <v>165.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -3114,24 +3369,8 @@
       <c r="E53" s="1">
         <v>614</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J53" s="1">
-        <v>3</v>
-      </c>
-      <c r="K53" s="1">
-        <v>10</v>
-      </c>
-      <c r="L53" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H53,B:B,I53,C:C,J53,D:D,K53)</f>
-        <v>322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -3147,24 +3386,8 @@
       <c r="E54" s="1">
         <v>2441</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J54" s="1">
-        <v>3</v>
-      </c>
-      <c r="K54" s="1">
-        <v>20</v>
-      </c>
-      <c r="L54" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H54,B:B,I54,C:C,J54,D:D,K54)</f>
-        <v>631.29999999999995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -3180,24 +3403,8 @@
       <c r="E55" s="1">
         <v>1111</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J55" s="1">
-        <v>3</v>
-      </c>
-      <c r="K55" s="1">
-        <v>3</v>
-      </c>
-      <c r="L55" s="1">
-        <f t="shared" ref="L55:L62" si="3">AVERAGEIFS(E:E,A:A,H55,B:B,I55,C:C,J55,D:D,K55)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -3213,24 +3420,8 @@
       <c r="E56" s="1">
         <v>416</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J56" s="1">
-        <v>3</v>
-      </c>
-      <c r="K56" s="1">
-        <v>5</v>
-      </c>
-      <c r="L56" s="1">
-        <f t="shared" si="3"/>
-        <v>356.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -3246,24 +3437,8 @@
       <c r="E57" s="1">
         <v>402</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J57" s="1">
-        <v>3</v>
-      </c>
-      <c r="K57" s="1">
-        <v>10</v>
-      </c>
-      <c r="L57" s="1">
-        <f t="shared" si="3"/>
-        <v>459.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3279,24 +3454,8 @@
       <c r="E58" s="1">
         <v>1657</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J58" s="1">
-        <v>3</v>
-      </c>
-      <c r="K58" s="1">
-        <v>20</v>
-      </c>
-      <c r="L58" s="1">
-        <f t="shared" si="3"/>
-        <v>971.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -3312,24 +3471,8 @@
       <c r="E59" s="1">
         <v>772</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J59" s="1">
-        <v>3</v>
-      </c>
-      <c r="K59" s="1">
-        <v>3</v>
-      </c>
-      <c r="L59" s="1">
-        <f t="shared" si="3"/>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -3345,24 +3488,8 @@
       <c r="E60" s="1">
         <v>1397</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J60" s="1">
-        <v>3</v>
-      </c>
-      <c r="K60" s="1">
-        <v>5</v>
-      </c>
-      <c r="L60" s="1">
-        <f t="shared" si="3"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -3378,24 +3505,8 @@
       <c r="E61" s="1">
         <v>3071</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J61" s="1">
-        <v>3</v>
-      </c>
-      <c r="K61" s="1">
-        <v>10</v>
-      </c>
-      <c r="L61" s="1">
-        <f t="shared" si="3"/>
-        <v>568.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -3411,24 +3522,8 @@
       <c r="E62" s="1">
         <v>252</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J62" s="1">
-        <v>3</v>
-      </c>
-      <c r="K62" s="1">
-        <v>20</v>
-      </c>
-      <c r="L62" s="1">
-        <f t="shared" si="3"/>
-        <v>1252.9000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -3444,24 +3539,8 @@
       <c r="E63" s="1">
         <v>657</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J63" s="1">
-        <v>1</v>
-      </c>
-      <c r="K63" s="1">
-        <v>3</v>
-      </c>
-      <c r="L63" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H63,B:B,I63,C:C,J63,D:D,K63)</f>
-        <v>108.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -3477,24 +3556,8 @@
       <c r="E64" s="1">
         <v>602</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J64" s="1">
-        <v>1</v>
-      </c>
-      <c r="K64" s="1">
-        <v>5</v>
-      </c>
-      <c r="L64" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H64,B:B,I64,C:C,J64,D:D,K64)</f>
-        <v>118.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -3510,24 +3573,8 @@
       <c r="E65" s="1">
         <v>636</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1</v>
-      </c>
-      <c r="K65" s="1">
-        <v>10</v>
-      </c>
-      <c r="L65" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H65,B:B,I65,C:C,J65,D:D,K65)</f>
-        <v>171.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -3543,24 +3590,8 @@
       <c r="E66" s="1">
         <v>2370</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1">
-        <v>20</v>
-      </c>
-      <c r="L66" s="1">
-        <f>AVERAGEIFS(E:E,A:A,H66,B:B,I66,C:C,J66,D:D,K66)</f>
-        <v>346.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -3576,24 +3607,8 @@
       <c r="E67" s="1">
         <v>1187</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J67" s="1">
-        <v>1</v>
-      </c>
-      <c r="K67" s="1">
-        <v>3</v>
-      </c>
-      <c r="L67" s="1">
-        <f t="shared" ref="L67:L74" si="4">AVERAGEIFS(E:E,A:A,H67,B:B,I67,C:C,J67,D:D,K67)</f>
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -3609,24 +3624,8 @@
       <c r="E68" s="1">
         <v>423</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J68" s="1">
-        <v>1</v>
-      </c>
-      <c r="K68" s="1">
-        <v>5</v>
-      </c>
-      <c r="L68" s="1">
-        <f t="shared" si="4"/>
-        <v>222.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -3642,24 +3641,8 @@
       <c r="E69" s="1">
         <v>356</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1</v>
-      </c>
-      <c r="K69" s="1">
-        <v>10</v>
-      </c>
-      <c r="L69" s="1">
-        <f t="shared" si="4"/>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -3675,24 +3658,8 @@
       <c r="E70" s="1">
         <v>1674</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1</v>
-      </c>
-      <c r="K70" s="1">
-        <v>20</v>
-      </c>
-      <c r="L70" s="1">
-        <f t="shared" si="4"/>
-        <v>739.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -3708,24 +3675,8 @@
       <c r="E71" s="1">
         <v>797</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1</v>
-      </c>
-      <c r="K71" s="1">
-        <v>3</v>
-      </c>
-      <c r="L71" s="1">
-        <f t="shared" si="4"/>
-        <v>331.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -3741,24 +3692,8 @@
       <c r="E72" s="1">
         <v>1419</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J72" s="1">
-        <v>1</v>
-      </c>
-      <c r="K72" s="1">
-        <v>5</v>
-      </c>
-      <c r="L72" s="1">
-        <f t="shared" si="4"/>
-        <v>302.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -3774,24 +3709,8 @@
       <c r="E73" s="1">
         <v>2989</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J73" s="1">
-        <v>1</v>
-      </c>
-      <c r="K73" s="1">
-        <v>10</v>
-      </c>
-      <c r="L73" s="1">
-        <f t="shared" si="4"/>
-        <v>317.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -3807,24 +3726,8 @@
       <c r="E74" s="1">
         <v>296</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J74" s="1">
-        <v>1</v>
-      </c>
-      <c r="K74" s="1">
-        <v>20</v>
-      </c>
-      <c r="L74" s="1">
-        <f t="shared" si="4"/>
-        <v>743.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -3841,7 +3744,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -3858,7 +3761,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +3778,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -3892,7 +3795,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -3909,7 +3812,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -12784,18 +12687,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H14:L74" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="20"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="H12:N29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="K13:N13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -12806,13 +12701,13 @@
   <dimension ref="B18:G18"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="9" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
@@ -12820,24 +12715,14 @@
   </cols>
   <sheetData>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="8">
-        <v>20</v>
-      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
